--- a/IPEAT_Para.xlsx
+++ b/IPEAT_Para.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SWAT-HM\SWAT-HMV1.1\IPEAT\03Obs&amp;Para\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SWAT-HM\01MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="IPEAT_Para" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IPEAT_Para!$B$2:$L$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IPEAT_Para!$B$2:$N$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="202">
   <si>
     <t xml:space="preserve"> ParameterControl:</t>
   </si>
@@ -634,6 +634,14 @@
   </si>
   <si>
     <t>R</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1555,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L142"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1571,12 +1579,12 @@
     <col min="10" max="10" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1610,8 +1618,11 @@
       <c r="L2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1646,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1681,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1716,7 +1727,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1751,7 +1762,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1786,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1821,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1856,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>8</v>
       </c>
@@ -1891,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1926,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>10</v>
       </c>
@@ -1961,7 +1972,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>11</v>
       </c>
@@ -1996,7 +2007,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>12</v>
       </c>
@@ -2031,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>13</v>
       </c>
@@ -2066,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>14</v>
       </c>
@@ -2101,7 +2112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>15</v>
       </c>
@@ -2136,7 +2147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>16</v>
       </c>
@@ -2171,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>17</v>
       </c>
@@ -2200,53 +2211,59 @@
         <v>189</v>
       </c>
       <c r="K19">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="L19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>-5</v>
+      </c>
+      <c r="I20">
         <v>5</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>10</v>
-      </c>
       <c r="J20" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -2273,85 +2290,97 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K22">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>21</v>
       </c>
       <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23">
+        <v>95.48</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>21</v>
+      </c>
+      <c r="I23">
+        <v>45</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>500</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
         <v>37</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23">
-        <v>325</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>650</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B24">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -2360,7 +2389,7 @@
         <v>15</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>325</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2369,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>650</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>189</v>
@@ -2378,50 +2407,50 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F25">
-        <v>8.7130000000000003E-3</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K25">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -2430,118 +2459,118 @@
         <v>11</v>
       </c>
       <c r="F26">
-        <v>1.319</v>
+        <v>8.7130000000000003E-3</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="L26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F27">
-        <v>12.06</v>
+        <v>1.319</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K27">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F28">
-        <v>0.505</v>
+        <v>12.06</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K28">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="L28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F29">
-        <v>0.5</v>
+        <v>0.505</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2550,18 +2579,18 @@
         <v>189</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -2570,68 +2599,68 @@
         <v>45</v>
       </c>
       <c r="F30">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F31">
-        <v>50</v>
+        <v>1.25</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I31">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -2640,7 +2669,7 @@
         <v>11</v>
       </c>
       <c r="F32">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2649,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>189</v>
@@ -2658,15 +2687,15 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -2675,33 +2704,33 @@
         <v>11</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B34">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
@@ -2710,112 +2739,112 @@
         <v>11</v>
       </c>
       <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>20</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35">
         <v>0.1</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>0.01</v>
       </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K34">
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K35">
         <v>0.01</v>
       </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B35">
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B36">
         <v>33</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>51</v>
-      </c>
-      <c r="D35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35">
-        <v>56.43</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>100</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B36">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
-        <v>54</v>
       </c>
       <c r="D36" t="s">
         <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F36">
-        <v>6559</v>
+        <v>56.43</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B37">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F37">
-        <v>3884</v>
+        <v>6559</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2824,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="I37">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>189</v>
@@ -2833,103 +2862,103 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B38">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
         <v>52</v>
       </c>
       <c r="E38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38">
+        <v>3884</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>4000</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B39">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" t="s">
         <v>11</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>3.0059999999999998</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>0.1</v>
       </c>
-      <c r="I38">
+      <c r="I39">
         <v>5</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K38">
+      <c r="J39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K39">
         <v>0.1</v>
       </c>
-      <c r="L38">
+      <c r="L39">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B39">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B40">
         <v>37</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>59</v>
-      </c>
-      <c r="D39" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39">
-        <v>6.9620000000000001E-2</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>1E-3</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K39">
-        <v>1E-3</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B40">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>62</v>
       </c>
       <c r="D40" t="s">
         <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F40">
-        <v>95.48</v>
+        <v>6.9620000000000001E-2</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>1E-3</v>
+        <v>0.25</v>
       </c>
       <c r="I40">
-        <v>100</v>
+        <v>0.7</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>189</v>
@@ -2938,10 +2967,16 @@
         <v>1E-3</v>
       </c>
       <c r="L40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>39</v>
       </c>
@@ -2958,13 +2993,13 @@
         <v>4.3880000000000002E-2</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I41">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>189</v>
@@ -2975,8 +3010,14 @@
       <c r="L41">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B42">
         <v>40</v>
       </c>
@@ -2993,25 +3034,31 @@
         <v>0.25</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>-0.5</v>
+        <v>0.12</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K42">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+        <v>0.4</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B43">
         <v>41</v>
       </c>
@@ -3046,7 +3093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>42</v>
       </c>
@@ -3066,10 +3113,10 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I44">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>189</v>
@@ -3080,8 +3127,14 @@
       <c r="L44">
         <v>50000</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45">
         <v>43</v>
       </c>
@@ -3098,13 +3151,13 @@
         <v>0.5</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>189</v>
@@ -3115,8 +3168,14 @@
       <c r="L45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B46">
         <v>44</v>
       </c>
@@ -3151,7 +3210,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B47">
         <v>45</v>
       </c>
@@ -3186,7 +3245,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B48">
         <v>46</v>
       </c>
@@ -3221,7 +3280,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B49">
         <v>47</v>
       </c>
@@ -3238,16 +3297,16 @@
         <v>0.91990000000000005</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>1E-3</v>
+        <v>-0.5</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="K49">
         <v>1E-3</v>
@@ -3255,8 +3314,14 @@
       <c r="L49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B50">
         <v>48</v>
       </c>
@@ -3291,7 +3356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B51">
         <v>49</v>
       </c>
@@ -3308,25 +3373,31 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>0.01</v>
+        <v>-0.5</v>
       </c>
       <c r="I51">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="K51">
         <v>0.01</v>
       </c>
       <c r="L51">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B52">
         <v>50</v>
       </c>
@@ -3361,7 +3432,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B53">
         <v>51</v>
       </c>
@@ -3396,7 +3467,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B54">
         <v>52</v>
       </c>
@@ -3431,7 +3502,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B55">
         <v>53</v>
       </c>
@@ -3466,7 +3537,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B56">
         <v>54</v>
       </c>
@@ -3501,7 +3572,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B57">
         <v>55</v>
       </c>
@@ -3536,7 +3607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B58">
         <v>56</v>
       </c>
@@ -3559,7 +3630,7 @@
         <v>-0.5</v>
       </c>
       <c r="I58">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>196</v>
@@ -3570,8 +3641,14 @@
       <c r="L58">
         <v>98</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B59">
         <v>57</v>
       </c>
@@ -3606,7 +3683,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B60">
         <v>58</v>
       </c>
@@ -3641,7 +3718,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B61">
         <v>59</v>
       </c>
@@ -3676,7 +3753,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B62">
         <v>60</v>
       </c>
@@ -3711,7 +3788,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B63">
         <v>61</v>
       </c>
@@ -3746,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B64">
         <v>62</v>
       </c>
@@ -3781,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B65">
         <v>63</v>
       </c>
@@ -3816,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B66">
         <v>64</v>
       </c>
@@ -3851,7 +3928,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B67">
         <v>65</v>
       </c>
@@ -3868,16 +3945,16 @@
         <v>0.1273</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>0.01</v>
+        <v>-0.4</v>
       </c>
       <c r="I67">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="K67">
         <v>0.01</v>
@@ -3885,8 +3962,14 @@
       <c r="L67">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B68">
         <v>66</v>
       </c>
@@ -3921,7 +4004,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B69">
         <v>67</v>
       </c>
@@ -3941,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="I69">
         <v>0.5</v>
@@ -3955,8 +4038,14 @@
       <c r="L69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B70">
         <v>68</v>
       </c>
@@ -3990,8 +4079,14 @@
       <c r="L70">
         <v>2000</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B71">
         <v>69</v>
       </c>
@@ -4026,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B72">
         <v>70</v>
       </c>
@@ -4061,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B73">
         <v>71</v>
       </c>
@@ -4096,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B74">
         <v>72</v>
       </c>
@@ -4131,7 +4226,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B75">
         <v>73</v>
       </c>
@@ -4166,7 +4261,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B76">
         <v>74</v>
       </c>
@@ -4201,7 +4296,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B77">
         <v>75</v>
       </c>
@@ -4236,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B78">
         <v>76</v>
       </c>
@@ -4271,7 +4366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B79">
         <v>77</v>
       </c>
@@ -4306,7 +4401,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B80">
         <v>78</v>
       </c>
@@ -6512,7 +6607,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:L142"/>
+  <sortState ref="B3:N142">
+    <sortCondition ref="B3:B142"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/IPEAT_Para.xlsx
+++ b/IPEAT_Para.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SWAT-HM\01MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SWAT-HM\SWAT-HMV1.1\01MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="203">
   <si>
     <t xml:space="preserve"> ParameterControl:</t>
   </si>
@@ -642,6 +642,10 @@
   </si>
   <si>
     <t>Sort</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.hru</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1566,7 +1570,7 @@
   <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1767,16 +1771,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>0.64939999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1785,13 +1789,13 @@
         <v>-0.5</v>
       </c>
       <c r="I7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="K7">
-        <v>1E-3</v>
+        <v>-0.5</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1802,22 +1806,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1826,7 +1830,7 @@
         <v>189</v>
       </c>
       <c r="K8">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1837,7 +1841,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1846,13 +1850,13 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.73119999999999996</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1861,7 +1865,7 @@
         <v>189</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1872,7 +1876,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1881,7 +1885,7 @@
         <v>11</v>
       </c>
       <c r="F10">
-        <v>0.73119999999999996</v>
+        <v>0.505</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1907,34 +1911,34 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>0.505</v>
+        <v>106.7</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K11">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -1942,34 +1946,34 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F12">
-        <v>106.7</v>
+        <v>14.58</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>200</v>
+        <v>17.5</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>200</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -1977,34 +1981,34 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F13">
-        <v>14.58</v>
+        <v>0.78320000000000001</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>17.5</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>17.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -2012,7 +2016,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -2021,13 +2025,13 @@
         <v>11</v>
       </c>
       <c r="F14">
-        <v>0.78320000000000001</v>
+        <v>0.38390000000000002</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -2036,7 +2040,7 @@
         <v>189</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2047,34 +2051,34 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F15">
-        <v>0.38390000000000002</v>
+        <v>7.5</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K15">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
@@ -2082,34 +2086,34 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F16">
-        <v>7.5</v>
+        <v>0.51</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I16">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L16">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.15">
@@ -2117,7 +2121,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -2126,13 +2130,13 @@
         <v>11</v>
       </c>
       <c r="F17">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2141,7 +2145,7 @@
         <v>189</v>
       </c>
       <c r="K17">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -2152,33 +2156,36 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L18">
+        <v>20</v>
+      </c>
+      <c r="M18">
         <v>1</v>
       </c>
     </row>
@@ -2187,7 +2194,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -2225,31 +2232,31 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K20">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>20</v>
@@ -2263,7 +2270,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -2301,37 +2308,40 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F22">
+        <v>95.48</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>21</v>
+      </c>
+      <c r="I22">
+        <v>45</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>500</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
         <v>5</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>10</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>20</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.15">
@@ -2339,25 +2349,25 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F23">
-        <v>95.48</v>
+        <v>325</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>45</v>
+        <v>650</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>189</v>
@@ -2366,21 +2376,15 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>500</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>5</v>
+        <v>650</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -2389,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F24">
-        <v>325</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2398,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>650</v>
+        <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>189</v>
@@ -2407,50 +2411,50 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>650</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>8.7130000000000003E-3</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -2459,118 +2463,118 @@
         <v>11</v>
       </c>
       <c r="F26">
-        <v>8.7130000000000003E-3</v>
+        <v>1.319</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1E-4</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K26">
-        <v>1E-4</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.01</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F27">
-        <v>1.319</v>
+        <v>12.06</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F28">
-        <v>12.06</v>
+        <v>0.505</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I28">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K28">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F29">
-        <v>0.505</v>
+        <v>0.5</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2579,7 +2583,7 @@
         <v>189</v>
       </c>
       <c r="K29">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -2587,10 +2591,10 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -2599,68 +2603,68 @@
         <v>45</v>
       </c>
       <c r="F30">
+        <v>1.25</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>0.5</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F31">
-        <v>1.25</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B32">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -2669,7 +2673,7 @@
         <v>11</v>
       </c>
       <c r="F32">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2678,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>189</v>
@@ -2687,15 +2691,15 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -2704,33 +2708,33 @@
         <v>11</v>
       </c>
       <c r="F33">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
@@ -2739,112 +2743,112 @@
         <v>11</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I34">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F35">
-        <v>0.1</v>
+        <v>56.43</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B36">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
         <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F36">
-        <v>56.43</v>
+        <v>6559</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B37">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F37">
-        <v>6559</v>
+        <v>3884</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2853,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="I37">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>189</v>
@@ -2862,118 +2866,124 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>10000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B38">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F38">
-        <v>3884</v>
+        <v>3.0059999999999998</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I38">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L38">
-        <v>4000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B39">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F39">
-        <v>3.0059999999999998</v>
+        <v>6.9620000000000001E-2</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K39">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="L39">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B40">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
         <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F40">
-        <v>6.9620000000000001E-2</v>
+        <v>4.3880000000000002E-2</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>0.25</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I40">
-        <v>0.7</v>
+        <v>0.16</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K40">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="M40">
         <v>1</v>
       </c>
       <c r="N40">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.15">
@@ -2981,40 +2991,40 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
         <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F41">
-        <v>4.3880000000000002E-2</v>
+        <v>0.25</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="I41">
-        <v>0.16</v>
+        <v>0.35</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K41">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
       <c r="N41">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.15">
@@ -3022,25 +3032,25 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
         <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F42">
-        <v>0.25</v>
+        <v>12.5</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0.35</v>
+        <v>25</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>189</v>
@@ -3049,13 +3059,7 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0.4</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.15">
@@ -3063,25 +3067,25 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
         <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="F43">
-        <v>12.5</v>
+        <v>0.6653</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I43">
-        <v>25</v>
+        <v>3200</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>189</v>
@@ -3090,7 +3094,13 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>50000</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.15">
@@ -3098,25 +3108,25 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D44" t="s">
         <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F44">
-        <v>0.6653</v>
+        <v>0.5</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>1000</v>
+        <v>0.08</v>
       </c>
       <c r="I44">
-        <v>3200</v>
+        <v>0.4</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>189</v>
@@ -3125,13 +3135,13 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <v>1</v>
       </c>
       <c r="N44">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.15">
@@ -3139,25 +3149,25 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
         <v>60</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F45">
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0.4</v>
+        <v>500</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>189</v>
@@ -3166,13 +3176,7 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>8</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.15">
@@ -3180,16 +3184,16 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
         <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="F46">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3198,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>189</v>
@@ -3207,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.15">
@@ -3215,13 +3219,13 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
         <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -3233,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>189</v>
@@ -3242,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.15">
@@ -3250,34 +3254,40 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>0.91990000000000005</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I48">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L48">
-        <v>1000</v>
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.15">
@@ -3285,19 +3295,19 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
       </c>
       <c r="F49">
-        <v>0.91990000000000005</v>
+        <v>0.64939999999999998</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>-0.5</v>
@@ -3306,19 +3316,13 @@
         <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K49">
         <v>1E-3</v>
       </c>
       <c r="L49">
         <v>1</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>2</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.15">
@@ -6612,6 +6616,6 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IPEAT_Para.xlsx
+++ b/IPEAT_Para.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SWAT-HM\SWAT-HMV1.1\01MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\songhaozheng\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="231">
   <si>
     <t xml:space="preserve"> ParameterControl:</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>10m3/Mg</t>
-  </si>
-  <si>
-    <t>PRF</t>
   </si>
   <si>
     <t>PSP</t>
@@ -646,6 +643,105 @@
   </si>
   <si>
     <t>.hru</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRF_BSN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH_HM_STL</t>
+  </si>
+  <si>
+    <t>CH_HM_RSP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH_HM_MIX</t>
+  </si>
+  <si>
+    <t>CH_HM_BRY</t>
+  </si>
+  <si>
+    <t>CH_HM_LabCONC</t>
+  </si>
+  <si>
+    <t>CH_HM_NonlabCONC</t>
+  </si>
+  <si>
+    <t>CH_HM_ACT</t>
+  </si>
+  <si>
+    <t>m/day</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.hml</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HML_Area_fra</t>
+  </si>
+  <si>
+    <t>HML_Rock</t>
+  </si>
+  <si>
+    <t>SOL_HM_LabConc</t>
+  </si>
+  <si>
+    <t>SOL_HM_NonlabConc</t>
+  </si>
+  <si>
+    <t>HM_Enr</t>
+  </si>
+  <si>
+    <t>HM_Agr</t>
+  </si>
+  <si>
+    <t>HM_Agr_fra</t>
+  </si>
+  <si>
+    <t>HM_Atmo</t>
+  </si>
+  <si>
+    <t>HM_Atmo_fra</t>
+  </si>
+  <si>
+    <t>kg/ha</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mg/kg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>g/ha/yr</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1567,15 +1663,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="7" max="7" width="7.125" customWidth="1"/>
     <col min="8" max="8" width="11.375" customWidth="1"/>
@@ -1614,16 +1711,16 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L2" t="s">
         <v>187</v>
       </c>
-      <c r="L2" t="s">
-        <v>188</v>
-      </c>
       <c r="N2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -1637,13 +1734,13 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="F3">
         <v>0.99819999999999998</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1652,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1678,7 +1775,7 @@
         <v>1.5</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1687,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1713,7 +1810,7 @@
         <v>2.9870000000000001E-3</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1E-3</v>
@@ -1722,7 +1819,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K5">
         <v>1E-3</v>
@@ -1748,7 +1845,7 @@
         <v>3000</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1757,7 +1854,7 @@
         <v>6000</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1783,7 +1880,7 @@
         <v>0.25</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>-0.5</v>
@@ -1792,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K7">
         <v>-0.5</v>
@@ -1806,7 +1903,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1818,7 +1915,7 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1827,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1853,7 +1950,7 @@
         <v>0.73119999999999996</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0.01</v>
@@ -1862,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K9">
         <v>0.01</v>
@@ -1888,7 +1985,7 @@
         <v>0.505</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0.01</v>
@@ -1897,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K10">
         <v>0.01</v>
@@ -1923,7 +2020,7 @@
         <v>106.7</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -1932,7 +2029,7 @@
         <v>200</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K11">
         <v>100</v>
@@ -1958,7 +2055,7 @@
         <v>14.58</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -1967,7 +2064,7 @@
         <v>17.5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -1981,7 +2078,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -1993,7 +2090,7 @@
         <v>0.78320000000000001</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2002,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2016,7 +2113,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -2028,7 +2125,7 @@
         <v>0.38390000000000002</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0.01</v>
@@ -2037,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K14">
         <v>0.01</v>
@@ -2051,19 +2148,19 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15">
         <v>7.5</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2072,7 +2169,7 @@
         <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2086,7 +2183,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -2098,7 +2195,7 @@
         <v>0.51</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0.02</v>
@@ -2107,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K16">
         <v>0.02</v>
@@ -2121,7 +2218,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -2133,7 +2230,7 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2142,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2156,19 +2253,19 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>-5</v>
@@ -2177,7 +2274,7 @@
         <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K18">
         <v>-20</v>
@@ -2194,19 +2291,19 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>-5</v>
@@ -2215,7 +2312,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K19">
         <v>-20</v>
@@ -2232,19 +2329,19 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20">
         <v>5</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2253,7 +2350,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2270,19 +2367,19 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2291,7 +2388,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2308,13 +2405,13 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22">
         <v>95.48</v>
@@ -2329,7 +2426,7 @@
         <v>45</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2349,7 +2446,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
@@ -2361,7 +2458,7 @@
         <v>325</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2370,7 +2467,7 @@
         <v>650</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2384,7 +2481,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -2396,7 +2493,7 @@
         <v>0.5</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2405,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2419,7 +2516,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -2431,7 +2528,7 @@
         <v>8.7130000000000003E-3</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1E-4</v>
@@ -2440,7 +2537,7 @@
         <v>0.01</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K25">
         <v>1E-4</v>
@@ -2454,7 +2551,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -2466,7 +2563,7 @@
         <v>1.319</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2475,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2489,19 +2586,19 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27">
         <v>12.06</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>1E-3</v>
@@ -2510,7 +2607,7 @@
         <v>15</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K27">
         <v>1E-3</v>
@@ -2524,7 +2621,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -2536,7 +2633,7 @@
         <v>0.505</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>0.01</v>
@@ -2545,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K28">
         <v>0.01</v>
@@ -2559,19 +2656,19 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29">
         <v>0.5</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2580,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2594,19 +2691,19 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30">
         <v>1.25</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>0.5</v>
@@ -2615,7 +2712,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K30">
         <v>0.5</v>
@@ -2629,7 +2726,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
@@ -2641,7 +2738,7 @@
         <v>50</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2650,7 +2747,7 @@
         <v>100</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2664,7 +2761,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -2676,7 +2773,7 @@
         <v>0.5</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2685,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2699,7 +2796,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -2711,7 +2808,7 @@
         <v>10</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -2720,7 +2817,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2734,7 +2831,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
@@ -2746,7 +2843,7 @@
         <v>0.1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>0.01</v>
@@ -2755,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K34">
         <v>0.01</v>
@@ -2769,19 +2866,19 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
         <v>51</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>52</v>
-      </c>
-      <c r="E35" t="s">
-        <v>53</v>
       </c>
       <c r="F35">
         <v>56.43</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2790,7 +2887,7 @@
         <v>100</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2804,19 +2901,19 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" t="s">
         <v>54</v>
-      </c>
-      <c r="D36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" t="s">
-        <v>55</v>
       </c>
       <c r="F36">
         <v>6559</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -2825,7 +2922,7 @@
         <v>10000</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -2839,19 +2936,19 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" t="s">
         <v>56</v>
-      </c>
-      <c r="D37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" t="s">
-        <v>57</v>
       </c>
       <c r="F37">
         <v>3884</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -2860,7 +2957,7 @@
         <v>4000</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -2874,10 +2971,10 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -2886,7 +2983,7 @@
         <v>3.0059999999999998</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>0.1</v>
@@ -2895,7 +2992,7 @@
         <v>5</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K38">
         <v>0.1</v>
@@ -2909,40 +3006,34 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F39">
-        <v>6.9620000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="I39">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K39">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>1</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>4</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.15">
@@ -2950,40 +3041,34 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="F40">
-        <v>4.3880000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.5</v>
       </c>
       <c r="I40">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K40">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>0.2</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>7</v>
+        <v>999999</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.15">
@@ -2991,40 +3076,34 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="F41">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>0.12</v>
+        <v>-0.5</v>
       </c>
       <c r="I41">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0.4</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>9</v>
+        <v>999999</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.15">
@@ -3032,34 +3111,34 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="F42">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I42">
-        <v>25</v>
+        <v>0.5</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>999999</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.15">
@@ -3067,40 +3146,34 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="F43">
-        <v>0.6653</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1000</v>
+        <v>-0.5</v>
       </c>
       <c r="I43">
-        <v>3200</v>
+        <v>0.5</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>50000</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.15">
@@ -3108,40 +3181,34 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>219</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>-0.5</v>
+      </c>
+      <c r="I44">
         <v>0.5</v>
       </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>0.08</v>
-      </c>
-      <c r="I44">
-        <v>0.4</v>
-      </c>
       <c r="J44" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>8</v>
+        <v>999999</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.15">
@@ -3149,34 +3216,34 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>220</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="F45">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I45">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.15">
@@ -3184,34 +3251,34 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="E46" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I46">
-        <v>200</v>
+        <v>0.5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>200</v>
+        <v>999999</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.15">
@@ -3219,34 +3286,34 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I47">
-        <v>1000</v>
+        <v>0.5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.15">
@@ -3254,28 +3321,28 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F48">
-        <v>0.91990000000000005</v>
+        <v>6.9620000000000001E-2</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K48">
         <v>1E-3</v>
@@ -3287,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.15">
@@ -3295,34 +3362,40 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>202</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
       </c>
       <c r="F49">
-        <v>0.64939999999999998</v>
+        <v>4.3880000000000002E-2</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>-0.5</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="K49">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0.2</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.15">
@@ -3330,34 +3403,40 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I50">
-        <v>10</v>
+        <v>0.35</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>10</v>
+        <v>0.4</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.15">
@@ -3365,40 +3444,34 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="F51">
-        <v>0.30499999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0.5</v>
+        <v>25</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="K51">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>30</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.15">
@@ -3406,34 +3479,40 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E52" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="F52">
-        <v>5000</v>
+        <v>0.6653</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I52">
-        <v>10000</v>
+        <v>3200</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>10000</v>
+        <v>50000</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.15">
@@ -3441,34 +3520,40 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>-0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I53">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K53">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.15">
@@ -3476,34 +3561,34 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E54" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="F54">
-        <v>33.64</v>
+        <v>250</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>150</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.15">
@@ -3511,34 +3596,34 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F55">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K55">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>5000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.15">
@@ -3546,34 +3631,34 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F56">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.15">
@@ -3581,34 +3666,40 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
       </c>
       <c r="F57">
-        <v>0.5</v>
+        <v>0.91990000000000005</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L57">
         <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.15">
@@ -3616,16 +3707,16 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F58">
-        <v>9.604E-2</v>
+        <v>0.64939999999999998</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -3634,21 +3725,15 @@
         <v>-0.5</v>
       </c>
       <c r="I58">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>196</v>
       </c>
       <c r="K58">
-        <v>35</v>
+        <v>1E-3</v>
       </c>
       <c r="L58">
-        <v>98</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
         <v>1</v>
       </c>
     </row>
@@ -3657,34 +3742,34 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D59" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E59" t="s">
         <v>15</v>
       </c>
       <c r="F59">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>6000</v>
+        <v>10</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K59">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>6000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.15">
@@ -3692,34 +3777,40 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E60" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F60">
-        <v>50</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I60">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L60">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.15">
@@ -3727,34 +3818,34 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D61" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E61" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F61">
-        <v>24</v>
+        <v>5000</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>48</v>
+        <v>10000</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>48</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.15">
@@ -3762,34 +3853,34 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E62" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="F62">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I62">
-        <v>48</v>
+        <v>0.1</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L62">
-        <v>48</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.15">
@@ -3797,34 +3888,34 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D63" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="F63">
-        <v>0.70269999999999999</v>
+        <v>33.64</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.15">
@@ -3832,34 +3923,34 @@
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D64" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F64">
-        <v>3.696E-2</v>
+        <v>2000</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.15">
@@ -3867,34 +3958,34 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D65" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65">
-        <v>0.21909999999999999</v>
+        <v>2500</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.15">
@@ -3902,34 +3993,34 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E66" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="F66">
-        <v>4.1719999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K66">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.15">
@@ -3937,40 +4028,40 @@
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D67" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F67">
-        <v>0.1273</v>
+        <v>9.604E-2</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="I67">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K67">
-        <v>0.01</v>
+        <v>35</v>
       </c>
       <c r="L67">
-        <v>0.3</v>
+        <v>98</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
       <c r="N67">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.15">
@@ -3978,34 +4069,34 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>-0.05</v>
+        <v>100</v>
       </c>
       <c r="I68">
-        <v>0.05</v>
+        <v>6000</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K68">
-        <v>-0.05</v>
+        <v>100</v>
       </c>
       <c r="L68">
-        <v>0.05</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.15">
@@ -4013,40 +4104,34 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F69">
-        <v>-0.34110000000000001</v>
+        <v>50</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="K69">
         <v>0</v>
       </c>
       <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69">
-        <v>1</v>
-      </c>
-      <c r="N69">
-        <v>11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.15">
@@ -4054,40 +4139,34 @@
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="F70">
-        <v>1.9119999999999999</v>
+        <v>24</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0.5</v>
+        <v>48</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
       <c r="L70">
-        <v>2000</v>
-      </c>
-      <c r="M70">
-        <v>1</v>
-      </c>
-      <c r="N70">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.15">
@@ -4095,34 +4174,34 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D71" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="F71">
-        <v>0.25</v>
+        <v>24</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K71">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.15">
@@ -4130,31 +4209,31 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D72" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F72">
-        <v>0.62039999999999995</v>
+        <v>0.70269999999999999</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K72">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -4165,31 +4244,31 @@
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D73" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F73">
-        <v>0.25</v>
+        <v>3.696E-2</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K73">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -4200,34 +4279,34 @@
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D74" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E74" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="F74">
-        <v>145.6</v>
+        <v>0.21909999999999999</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K74">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.15">
@@ -4235,34 +4314,34 @@
         <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="F75">
-        <v>0.2732</v>
+        <v>4.1719999999999997</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I75">
-        <v>0.3</v>
+        <v>150</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K75">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="L75">
-        <v>0.3</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.15">
@@ -4270,34 +4349,40 @@
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>0.1273</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="I76">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K76">
-        <v>-0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L76">
-        <v>0.05</v>
+        <v>0.3</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.15">
@@ -4305,34 +4390,34 @@
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E77" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="F77">
-        <v>0.504</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>0.1</v>
+        <v>-0.25</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K77">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.15">
@@ -4340,34 +4425,40 @@
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E78" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="F78">
-        <v>0.81010000000000004</v>
+        <v>-0.34110000000000001</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="K78">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.15">
@@ -4375,34 +4466,40 @@
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E79" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="F79">
-        <v>0.20130000000000001</v>
+        <v>1.9119999999999999</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="I79">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K79">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>0.4</v>
+        <v>2000</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.15">
@@ -4410,34 +4507,34 @@
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E80" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="F80">
-        <v>0.2296</v>
+        <v>0.25</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>0.01</v>
+        <v>-0.5</v>
       </c>
       <c r="I80">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K80">
-        <v>0.01</v>
+        <v>-0.5</v>
       </c>
       <c r="L80">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.15">
@@ -4445,34 +4542,34 @@
         <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E81" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.62039999999999995</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>0.15</v>
+        <v>-0.5</v>
       </c>
       <c r="I81">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K81">
-        <v>0.15</v>
+        <v>-0.5</v>
       </c>
       <c r="L81">
-        <v>1.82</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.15">
@@ -4480,34 +4577,34 @@
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E82" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="F82">
-        <v>8.4599999999999995E-2</v>
+        <v>0.25</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>1E-3</v>
+        <v>-0.5</v>
       </c>
       <c r="I82">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K82">
-        <v>1E-3</v>
+        <v>-0.5</v>
       </c>
       <c r="L82">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.15">
@@ -4515,34 +4612,34 @@
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E83" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F83">
-        <v>0.84699999999999998</v>
+        <v>145.6</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.15">
@@ -4550,34 +4647,34 @@
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E84" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="F84">
-        <v>8.931E-2</v>
+        <v>0.2732</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I84">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K84">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="L84">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.15">
@@ -4585,34 +4682,34 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E85" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="F85">
-        <v>6.2850000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>1E-3</v>
+        <v>-0.05</v>
       </c>
       <c r="I85">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K85">
-        <v>1E-3</v>
+        <v>-0.05</v>
       </c>
       <c r="L85">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.15">
@@ -4620,34 +4717,34 @@
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="F86">
-        <v>55</v>
+        <v>0.504</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="I86">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K86">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="L86">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.15">
@@ -4655,34 +4752,34 @@
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D87" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="F87">
-        <v>0.08</v>
+        <v>0.81010000000000004</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>7.0000000000000007E-2</v>
+        <v>0.2</v>
       </c>
       <c r="I87">
-        <v>0.09</v>
+        <v>2</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K87">
-        <v>7.0000000000000007E-2</v>
+        <v>0.2</v>
       </c>
       <c r="L87">
-        <v>0.09</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.15">
@@ -4690,34 +4787,34 @@
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D88" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="F88">
-        <v>1.4999999999999999E-2</v>
+        <v>0.20130000000000001</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="I88">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K88">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="L88">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.15">
@@ -4725,34 +4822,34 @@
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D89" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E89" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>0.2296</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="L89">
-        <v>3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.15">
@@ -4760,34 +4857,34 @@
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D90" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="F90">
-        <v>0.155</v>
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="I90">
-        <v>0.3</v>
+        <v>1.82</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K90">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="L90">
-        <v>0.3</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.15">
@@ -4795,34 +4892,34 @@
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D91" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="F91">
-        <v>0.5</v>
+        <v>8.4599999999999995E-2</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.15">
@@ -4830,34 +4927,34 @@
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D92" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="F92">
-        <v>0.27500000000000002</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K92">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.15">
@@ -4865,34 +4962,34 @@
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D93" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="F93">
-        <v>-0.16550000000000001</v>
+        <v>8.931E-2</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>-0.5</v>
+        <v>1E-3</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K93">
-        <v>-0.5</v>
+        <v>1E-3</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.15">
@@ -4900,34 +4997,34 @@
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D94" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="F94">
-        <v>0.5</v>
+        <v>6.2850000000000003E-2</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.15">
@@ -4935,34 +5032,34 @@
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E95" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="F95">
+        <v>0.1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>-0.5</v>
+      </c>
+      <c r="I95">
         <v>0.5</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
       <c r="J95" s="1" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
       <c r="L95">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.15">
@@ -4970,34 +5067,34 @@
         <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E96" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="F96">
+        <v>0.1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>-0.5</v>
+      </c>
+      <c r="I96">
         <v>0.5</v>
       </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
       <c r="J96" s="1" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="K96">
         <v>0</v>
       </c>
       <c r="L96">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.15">
@@ -5005,34 +5102,34 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="D97" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="F97">
+        <v>0.1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>-0.5</v>
+      </c>
+      <c r="I97">
         <v>0.5</v>
       </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
       <c r="J97" s="1" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="K97">
         <v>0</v>
       </c>
       <c r="L97">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.15">
@@ -5040,34 +5137,34 @@
         <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="D98" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E98" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="F98">
+        <v>0.1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>-0.5</v>
+      </c>
+      <c r="I98">
         <v>0.5</v>
       </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
       <c r="J98" s="1" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="K98">
         <v>0</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.15">
@@ -5075,34 +5172,34 @@
         <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E99" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="F99">
+        <v>0.1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>-0.5</v>
+      </c>
+      <c r="I99">
         <v>0.5</v>
       </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
       <c r="J99" s="1" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="K99">
         <v>0</v>
       </c>
       <c r="L99">
-        <v>1</v>
+        <v>999999</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.15">
@@ -5110,34 +5207,34 @@
         <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="D100" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E100" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="F100">
+        <v>0.1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>-0.5</v>
+      </c>
+      <c r="I100">
         <v>0.5</v>
       </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
       <c r="J100" s="1" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="K100">
         <v>0</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>999999</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.15">
@@ -5145,34 +5242,34 @@
         <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="D101" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E101" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="F101">
+        <v>0.1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>-0.5</v>
+      </c>
+      <c r="I101">
         <v>0.5</v>
       </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
       <c r="J101" s="1" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="K101">
         <v>0</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.15">
@@ -5180,34 +5277,34 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="D102" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E102" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="F102">
-        <v>0.5</v>
+        <v>55</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.15">
@@ -5215,34 +5312,34 @@
         <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D103" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E103" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="F103">
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0.09</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L103">
-        <v>1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.15">
@@ -5250,34 +5347,34 @@
         <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D104" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E104" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="F104">
-        <v>0.5</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L104">
-        <v>1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.15">
@@ -5285,34 +5382,34 @@
         <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="D105" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E105" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F105">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.15">
@@ -5320,34 +5417,34 @@
         <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="D106" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E106" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="F106">
-        <v>0.5</v>
+        <v>0.155</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L106">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.15">
@@ -5355,19 +5452,19 @@
         <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="D107" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E107" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="F107">
         <v>0.5</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -5376,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -5390,34 +5487,34 @@
         <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D108" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E108" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="F108">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>0.05</v>
+      </c>
+      <c r="I108">
         <v>0.5</v>
       </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
       <c r="J108" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L108">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.15">
@@ -5425,31 +5522,31 @@
         <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E109" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="F109">
-        <v>0.5</v>
+        <v>-0.16550000000000001</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L109">
         <v>1</v>
@@ -5460,19 +5557,19 @@
         <v>108</v>
       </c>
       <c r="C110" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D110" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E110" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="F110">
         <v>0.5</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -5481,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -5495,19 +5592,19 @@
         <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D111" t="s">
+        <v>131</v>
+      </c>
+      <c r="E111" t="s">
         <v>132</v>
-      </c>
-      <c r="E111" t="s">
-        <v>133</v>
       </c>
       <c r="F111">
         <v>0.5</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -5516,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -5530,19 +5627,19 @@
         <v>110</v>
       </c>
       <c r="C112" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D112" t="s">
+        <v>131</v>
+      </c>
+      <c r="E112" t="s">
         <v>132</v>
-      </c>
-      <c r="E112" t="s">
-        <v>133</v>
       </c>
       <c r="F112">
         <v>0.5</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -5551,7 +5648,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -5565,19 +5662,19 @@
         <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D113" t="s">
+        <v>131</v>
+      </c>
+      <c r="E113" t="s">
         <v>132</v>
-      </c>
-      <c r="E113" t="s">
-        <v>133</v>
       </c>
       <c r="F113">
         <v>0.5</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -5586,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -5600,19 +5697,19 @@
         <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D114" t="s">
+        <v>131</v>
+      </c>
+      <c r="E114" t="s">
         <v>132</v>
-      </c>
-      <c r="E114" t="s">
-        <v>133</v>
       </c>
       <c r="F114">
         <v>0.5</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -5621,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -5635,19 +5732,19 @@
         <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D115" t="s">
+        <v>131</v>
+      </c>
+      <c r="E115" t="s">
         <v>132</v>
-      </c>
-      <c r="E115" t="s">
-        <v>133</v>
       </c>
       <c r="F115">
         <v>0.5</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -5656,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -5670,19 +5767,19 @@
         <v>114</v>
       </c>
       <c r="C116" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D116" t="s">
+        <v>131</v>
+      </c>
+      <c r="E116" t="s">
         <v>132</v>
-      </c>
-      <c r="E116" t="s">
-        <v>133</v>
       </c>
       <c r="F116">
         <v>0.5</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -5691,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -5705,19 +5802,19 @@
         <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D117" t="s">
+        <v>131</v>
+      </c>
+      <c r="E117" t="s">
         <v>132</v>
-      </c>
-      <c r="E117" t="s">
-        <v>133</v>
       </c>
       <c r="F117">
         <v>0.5</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -5726,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -5740,19 +5837,19 @@
         <v>116</v>
       </c>
       <c r="C118" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D118" t="s">
+        <v>131</v>
+      </c>
+      <c r="E118" t="s">
         <v>132</v>
-      </c>
-      <c r="E118" t="s">
-        <v>133</v>
       </c>
       <c r="F118">
         <v>0.5</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -5761,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -5775,19 +5872,19 @@
         <v>117</v>
       </c>
       <c r="C119" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D119" t="s">
+        <v>131</v>
+      </c>
+      <c r="E119" t="s">
         <v>132</v>
-      </c>
-      <c r="E119" t="s">
-        <v>133</v>
       </c>
       <c r="F119">
         <v>0.5</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -5796,7 +5893,7 @@
         <v>1</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -5810,34 +5907,34 @@
         <v>118</v>
       </c>
       <c r="C120" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D120" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E120" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="F120">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K120">
         <v>0</v>
       </c>
       <c r="L120">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.15">
@@ -5845,34 +5942,34 @@
         <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D121" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E121" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F121">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K121">
         <v>0</v>
       </c>
       <c r="L121">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.15">
@@ -5880,34 +5977,34 @@
         <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D122" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E122" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="F122">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K122">
         <v>0</v>
       </c>
       <c r="L122">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.15">
@@ -5915,34 +6012,34 @@
         <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D123" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E123" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F123">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K123">
         <v>0</v>
       </c>
       <c r="L123">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.15">
@@ -5950,19 +6047,19 @@
         <v>122</v>
       </c>
       <c r="C124" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D124" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E124" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F124">
         <v>0.5</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -5971,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -5985,34 +6082,34 @@
         <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D125" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E125" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F125">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K125">
         <v>0</v>
       </c>
       <c r="L125">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.15">
@@ -6020,34 +6117,34 @@
         <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D126" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E126" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="F126">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K126">
         <v>0</v>
       </c>
       <c r="L126">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.15">
@@ -6055,34 +6152,34 @@
         <v>125</v>
       </c>
       <c r="C127" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D127" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E127" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="F127">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K127">
         <v>0</v>
       </c>
       <c r="L127">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.15">
@@ -6090,34 +6187,34 @@
         <v>126</v>
       </c>
       <c r="C128" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="D128" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E128" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F128">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K128">
         <v>0</v>
       </c>
       <c r="L128">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.15">
@@ -6125,19 +6222,19 @@
         <v>127</v>
       </c>
       <c r="C129" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D129" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E129" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="F129">
         <v>0.5</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -6146,7 +6243,7 @@
         <v>1</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -6160,19 +6257,19 @@
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D130" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F130">
         <v>0.5</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -6181,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -6195,34 +6292,34 @@
         <v>129</v>
       </c>
       <c r="C131" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="D131" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F131">
-        <v>1.5860000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K131">
         <v>0</v>
       </c>
       <c r="L131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.15">
@@ -6230,34 +6327,34 @@
         <v>130</v>
       </c>
       <c r="C132" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D132" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F132">
-        <v>3.5869999999999999E-2</v>
+        <v>0.5</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K132">
         <v>0</v>
       </c>
       <c r="L132">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.15">
@@ -6265,34 +6362,34 @@
         <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D133" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="E133" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="F133">
-        <v>1.252</v>
+        <v>0.5</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K133">
         <v>0</v>
       </c>
       <c r="L133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.15">
@@ -6300,34 +6397,34 @@
         <v>132</v>
       </c>
       <c r="C134" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D134" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="E134" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="F134">
-        <v>2.0710000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K134">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.15">
@@ -6335,19 +6432,19 @@
         <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="D135" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F135">
-        <v>0.90790000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -6356,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -6370,34 +6467,34 @@
         <v>134</v>
       </c>
       <c r="C136" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="D136" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="F136">
-        <v>0.65649999999999997</v>
+        <v>0.05</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K136">
         <v>0</v>
       </c>
       <c r="L136">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.15">
@@ -6405,34 +6502,34 @@
         <v>135</v>
       </c>
       <c r="C137" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D137" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="F137">
-        <v>0.40649999999999997</v>
+        <v>5</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>0.99</v>
+        <v>10</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K137">
         <v>0</v>
       </c>
       <c r="L137">
-        <v>0.99</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.15">
@@ -6440,34 +6537,34 @@
         <v>136</v>
       </c>
       <c r="C138" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="F138">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K138">
         <v>0</v>
       </c>
       <c r="L138">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.15">
@@ -6475,34 +6572,34 @@
         <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D139" t="s">
+        <v>105</v>
+      </c>
+      <c r="E139" t="s">
+        <v>111</v>
+      </c>
+      <c r="F139">
+        <v>5</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
         <v>10</v>
       </c>
-      <c r="E139" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139">
-        <v>0.5</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
       <c r="J139" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K139">
         <v>0</v>
       </c>
       <c r="L139">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.15">
@@ -6510,34 +6607,34 @@
         <v>138</v>
       </c>
       <c r="C140" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="F140">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="I140">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K140">
         <v>0</v>
       </c>
       <c r="L140">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.15">
@@ -6545,34 +6642,34 @@
         <v>139</v>
       </c>
       <c r="C141" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D141" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K141">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L141">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.15">
@@ -6580,33 +6677,593 @@
         <v>140</v>
       </c>
       <c r="C142" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="D142" t="s">
+        <v>105</v>
+      </c>
+      <c r="E142" t="s">
+        <v>165</v>
+      </c>
+      <c r="F142">
+        <v>500</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>1000</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B143">
+        <v>141</v>
+      </c>
+      <c r="C143" t="s">
+        <v>166</v>
+      </c>
+      <c r="D143" t="s">
+        <v>105</v>
+      </c>
+      <c r="E143" t="s">
+        <v>106</v>
+      </c>
+      <c r="F143">
+        <v>0.05</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0.1</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B144">
+        <v>142</v>
+      </c>
+      <c r="C144" t="s">
+        <v>167</v>
+      </c>
+      <c r="D144" t="s">
+        <v>105</v>
+      </c>
+      <c r="E144" t="s">
+        <v>111</v>
+      </c>
+      <c r="F144">
+        <v>0.05</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0.1</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B145">
+        <v>143</v>
+      </c>
+      <c r="C145" t="s">
+        <v>168</v>
+      </c>
+      <c r="D145" t="s">
+        <v>105</v>
+      </c>
+      <c r="E145" t="s">
+        <v>65</v>
+      </c>
+      <c r="F145">
+        <v>0.5</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B146">
+        <v>144</v>
+      </c>
+      <c r="C146" t="s">
+        <v>169</v>
+      </c>
+      <c r="D146" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146">
+        <v>0.5</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B147">
+        <v>145</v>
+      </c>
+      <c r="C147" t="s">
+        <v>170</v>
+      </c>
+      <c r="D147" t="s">
+        <v>171</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147">
+        <v>1.5860000000000001</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B148">
+        <v>146</v>
+      </c>
+      <c r="C148" t="s">
+        <v>172</v>
+      </c>
+      <c r="D148" t="s">
+        <v>171</v>
+      </c>
+      <c r="E148" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148">
+        <v>3.5869999999999999E-2</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0.5</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B149">
+        <v>147</v>
+      </c>
+      <c r="C149" t="s">
+        <v>173</v>
+      </c>
+      <c r="D149" t="s">
+        <v>171</v>
+      </c>
+      <c r="E149" t="s">
+        <v>174</v>
+      </c>
+      <c r="F149">
+        <v>1.252</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B150">
+        <v>148</v>
+      </c>
+      <c r="C150" t="s">
+        <v>175</v>
+      </c>
+      <c r="D150" t="s">
+        <v>171</v>
+      </c>
+      <c r="E150" t="s">
+        <v>176</v>
+      </c>
+      <c r="F150">
+        <v>2.0710000000000002</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>0.5</v>
+      </c>
+      <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K150">
+        <v>0.5</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B151">
+        <v>149</v>
+      </c>
+      <c r="C151" t="s">
+        <v>177</v>
+      </c>
+      <c r="D151" t="s">
+        <v>171</v>
+      </c>
+      <c r="E151" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B152">
+        <v>150</v>
+      </c>
+      <c r="C152" t="s">
+        <v>178</v>
+      </c>
+      <c r="D152" t="s">
+        <v>171</v>
+      </c>
+      <c r="E152" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B153">
+        <v>151</v>
+      </c>
+      <c r="C153" t="s">
+        <v>179</v>
+      </c>
+      <c r="D153" t="s">
+        <v>73</v>
+      </c>
+      <c r="E153" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153">
+        <v>0.40649999999999997</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0.99</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B154">
+        <v>152</v>
+      </c>
+      <c r="C154" t="s">
+        <v>180</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154">
+        <v>0.5</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B155">
+        <v>153</v>
+      </c>
+      <c r="C155" t="s">
+        <v>181</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155">
+        <v>0.5</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B156">
+        <v>154</v>
+      </c>
+      <c r="C156" t="s">
+        <v>182</v>
+      </c>
+      <c r="D156" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156">
+        <v>0.2</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0.5</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B157">
+        <v>155</v>
+      </c>
+      <c r="C157" t="s">
+        <v>183</v>
+      </c>
+      <c r="D157" t="s">
+        <v>184</v>
+      </c>
+      <c r="E157" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>0.9</v>
+      </c>
+      <c r="I157">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K157">
+        <v>0.9</v>
+      </c>
+      <c r="L157">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B158">
+        <v>156</v>
+      </c>
+      <c r="C158" t="s">
         <v>185</v>
       </c>
-      <c r="E142" t="s">
+      <c r="D158" t="s">
+        <v>184</v>
+      </c>
+      <c r="E158" t="s">
         <v>11</v>
       </c>
-      <c r="F142">
+      <c r="F158">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142">
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
         <v>1E-3</v>
       </c>
-      <c r="I142">
+      <c r="I158">
         <v>0.1</v>
       </c>
-      <c r="J142" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K142">
+      <c r="J158" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K158">
         <v>1E-3</v>
       </c>
-      <c r="L142">
+      <c r="L158">
         <v>0.1</v>
       </c>
     </row>

--- a/IPEAT_Para.xlsx
+++ b/IPEAT_Para.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SWAT-HM\SWAT-HMV1.1\01MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SWAT-HM\01MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="IPEAT_Para" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="246">
   <si>
     <t xml:space="preserve"> ParameterControl:</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>10m3/Mg</t>
-  </si>
-  <si>
-    <t>PRF</t>
   </si>
   <si>
     <t>PSP</t>
@@ -646,6 +643,161 @@
   </si>
   <si>
     <t>.hru</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRF_BSN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH_HM_STL</t>
+  </si>
+  <si>
+    <t>CH_HM_RSP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH_HM_MIX</t>
+  </si>
+  <si>
+    <t>CH_HM_BRY</t>
+  </si>
+  <si>
+    <t>CH_HM_LabCONC</t>
+  </si>
+  <si>
+    <t>CH_HM_NonlabCONC</t>
+  </si>
+  <si>
+    <t>CH_HM_ACT</t>
+  </si>
+  <si>
+    <t>m/day</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.hml</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HML_Area_fra</t>
+  </si>
+  <si>
+    <t>HML_Rock</t>
+  </si>
+  <si>
+    <t>SOL_HM_LabConc</t>
+  </si>
+  <si>
+    <t>SOL_HM_NonlabConc</t>
+  </si>
+  <si>
+    <t>HM_Enr</t>
+  </si>
+  <si>
+    <t>HM_Agr</t>
+  </si>
+  <si>
+    <t>HM_Agr_fra</t>
+  </si>
+  <si>
+    <t>HM_Atmo</t>
+  </si>
+  <si>
+    <t>HM_Atmo_fra</t>
+  </si>
+  <si>
+    <t>kg/ha</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mg/kg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>g/ha/yr</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal.dat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>METAL_KD1</t>
+  </si>
+  <si>
+    <t>METAL_KD2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>METAL_KD3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>METAL_KS1</t>
+  </si>
+  <si>
+    <t>METAL_KS2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>METAL_KW</t>
+  </si>
+  <si>
+    <t>METAL_KU</t>
+  </si>
+  <si>
+    <t>m3/kg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/day</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1567,15 +1719,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="7" max="7" width="7.125" customWidth="1"/>
     <col min="8" max="8" width="11.375" customWidth="1"/>
@@ -1614,16 +1767,16 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L2" t="s">
         <v>187</v>
       </c>
-      <c r="L2" t="s">
-        <v>188</v>
-      </c>
       <c r="N2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -1637,13 +1790,13 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="F3">
         <v>0.99819999999999998</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1652,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1678,7 +1831,7 @@
         <v>1.5</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1687,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1713,7 +1866,7 @@
         <v>2.9870000000000001E-3</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1E-3</v>
@@ -1722,7 +1875,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K5">
         <v>1E-3</v>
@@ -1748,7 +1901,7 @@
         <v>3000</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1757,7 +1910,7 @@
         <v>6000</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1783,7 +1936,7 @@
         <v>0.25</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>-0.5</v>
@@ -1792,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K7">
         <v>-0.5</v>
@@ -1806,7 +1959,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1818,7 +1971,7 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1827,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1853,7 +2006,7 @@
         <v>0.73119999999999996</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0.01</v>
@@ -1862,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K9">
         <v>0.01</v>
@@ -1888,7 +2041,7 @@
         <v>0.505</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0.01</v>
@@ -1897,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K10">
         <v>0.01</v>
@@ -1923,7 +2076,7 @@
         <v>106.7</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -1932,7 +2085,7 @@
         <v>200</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K11">
         <v>100</v>
@@ -1958,7 +2111,7 @@
         <v>14.58</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -1967,7 +2120,7 @@
         <v>17.5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -1981,7 +2134,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -1993,7 +2146,7 @@
         <v>0.78320000000000001</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2002,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2016,7 +2169,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -2028,7 +2181,7 @@
         <v>0.38390000000000002</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0.01</v>
@@ -2037,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K14">
         <v>0.01</v>
@@ -2051,19 +2204,19 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15">
         <v>7.5</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2072,7 +2225,7 @@
         <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2086,7 +2239,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -2098,7 +2251,7 @@
         <v>0.51</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0.02</v>
@@ -2107,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K16">
         <v>0.02</v>
@@ -2121,7 +2274,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -2133,7 +2286,7 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2142,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2156,19 +2309,19 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>-5</v>
@@ -2177,7 +2330,7 @@
         <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K18">
         <v>-20</v>
@@ -2194,19 +2347,19 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>-5</v>
@@ -2215,7 +2368,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K19">
         <v>-20</v>
@@ -2232,19 +2385,19 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20">
         <v>5</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2253,7 +2406,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2270,19 +2423,19 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2291,7 +2444,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2308,13 +2461,13 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22">
         <v>95.48</v>
@@ -2329,7 +2482,7 @@
         <v>45</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2349,7 +2502,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
@@ -2361,7 +2514,7 @@
         <v>325</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2370,7 +2523,7 @@
         <v>650</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2384,7 +2537,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -2396,7 +2549,7 @@
         <v>0.5</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2405,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2419,7 +2572,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -2431,7 +2584,7 @@
         <v>8.7130000000000003E-3</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1E-4</v>
@@ -2440,7 +2593,7 @@
         <v>0.01</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K25">
         <v>1E-4</v>
@@ -2454,7 +2607,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -2466,7 +2619,7 @@
         <v>1.319</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2475,7 +2628,7 @@
         <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2489,19 +2642,19 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27">
         <v>12.06</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>1E-3</v>
@@ -2510,7 +2663,7 @@
         <v>15</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K27">
         <v>1E-3</v>
@@ -2524,7 +2677,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -2536,7 +2689,7 @@
         <v>0.505</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>0.01</v>
@@ -2545,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K28">
         <v>0.01</v>
@@ -2559,19 +2712,19 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29">
         <v>0.5</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2580,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2594,19 +2747,19 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30">
         <v>1.25</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>0.5</v>
@@ -2615,7 +2768,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K30">
         <v>0.5</v>
@@ -2629,7 +2782,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
@@ -2641,7 +2794,7 @@
         <v>50</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2650,7 +2803,7 @@
         <v>100</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2664,7 +2817,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -2676,7 +2829,7 @@
         <v>0.5</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2685,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2694,12 +2847,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -2711,7 +2864,7 @@
         <v>10</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -2720,7 +2873,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2729,12 +2882,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
@@ -2746,7 +2899,7 @@
         <v>0.1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>0.01</v>
@@ -2755,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K34">
         <v>0.01</v>
@@ -2764,24 +2917,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35">
         <v>33</v>
       </c>
       <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
         <v>51</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>52</v>
-      </c>
-      <c r="E35" t="s">
-        <v>53</v>
       </c>
       <c r="F35">
         <v>56.43</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2790,7 +2943,7 @@
         <v>100</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2799,24 +2952,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>34</v>
       </c>
       <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" t="s">
         <v>54</v>
-      </c>
-      <c r="D36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" t="s">
-        <v>55</v>
       </c>
       <c r="F36">
         <v>6559</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -2825,7 +2978,7 @@
         <v>10000</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -2834,24 +2987,24 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37">
         <v>35</v>
       </c>
       <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" t="s">
         <v>56</v>
-      </c>
-      <c r="D37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" t="s">
-        <v>57</v>
       </c>
       <c r="F37">
         <v>3884</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -2860,7 +3013,7 @@
         <v>4000</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -2869,15 +3022,15 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -2886,7 +3039,7 @@
         <v>3.0059999999999998</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>0.1</v>
@@ -2895,7 +3048,7 @@
         <v>5</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K38">
         <v>0.1</v>
@@ -2904,390 +3057,354 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B39">
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F39">
-        <v>6.9620000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="I39">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K39">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B40">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="F40">
-        <v>4.3880000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.5</v>
       </c>
       <c r="I40">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K40">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>0.2</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="F41">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>0.12</v>
+        <v>-0.5</v>
       </c>
       <c r="I41">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0.4</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42">
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="F42">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I42">
-        <v>25</v>
+        <v>0.5</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="F43">
-        <v>0.6653</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1000</v>
+        <v>-0.5</v>
       </c>
       <c r="I43">
-        <v>3200</v>
+        <v>0.5</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>50000</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>219</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>-0.5</v>
+      </c>
+      <c r="I44">
         <v>0.5</v>
       </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>0.08</v>
-      </c>
-      <c r="I44">
-        <v>0.4</v>
-      </c>
       <c r="J44" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45">
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>220</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="F45">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I45">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46">
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="E46" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I46">
-        <v>200</v>
+        <v>0.5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47">
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I47">
-        <v>1000</v>
+        <v>0.5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B48">
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>239</v>
       </c>
       <c r="F48">
-        <v>0.91990000000000005</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48">
+        <v>-0.35</v>
+      </c>
+      <c r="I48">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K48">
         <v>-0.5</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="K48">
-        <v>1E-3</v>
-      </c>
       <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.15">
@@ -3295,34 +3412,34 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" t="s">
+        <v>231</v>
+      </c>
+      <c r="E49" t="s">
+        <v>239</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
         <v>16</v>
       </c>
-      <c r="D49" t="s">
-        <v>202</v>
-      </c>
-      <c r="E49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49">
-        <v>0.64939999999999998</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>-0.5</v>
-      </c>
       <c r="I49">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="K49">
-        <v>1E-3</v>
+        <v>16</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.15">
@@ -3330,34 +3447,34 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="I50">
-        <v>10</v>
+        <v>0.4</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="L50">
-        <v>10</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.15">
@@ -3365,40 +3482,34 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="F51">
-        <v>0.30499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>-0.5</v>
+        <v>0.11</v>
       </c>
       <c r="I51">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="K51">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>30</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.15">
@@ -3406,34 +3517,34 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="E52" t="s">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="F52">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="I52">
-        <v>10000</v>
+        <v>0.3</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>10000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.15">
@@ -3441,34 +3552,34 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>-0.1</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="I53">
-        <v>0.1</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K53">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.15">
@@ -3476,34 +3587,34 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="E54" t="s">
-        <v>66</v>
+        <v>242</v>
       </c>
       <c r="F54">
-        <v>33.64</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.15">
@@ -3511,34 +3622,40 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F55">
-        <v>2000</v>
+        <v>6.9620000000000001E-2</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>500</v>
+        <v>0.25</v>
       </c>
       <c r="I55">
-        <v>5000</v>
+        <v>0.7</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K55">
-        <v>500</v>
+        <v>1E-3</v>
       </c>
       <c r="L55">
-        <v>5000</v>
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.15">
@@ -3546,34 +3663,40 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56">
-        <v>2500</v>
+        <v>4.3880000000000002E-2</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I56">
-        <v>5000</v>
+        <v>0.16</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L56">
-        <v>5000</v>
+        <v>0.2</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.15">
@@ -3581,34 +3704,40 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F57">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>0.4</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.15">
@@ -3616,40 +3745,34 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F58">
-        <v>9.604E-2</v>
+        <v>12.5</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>0.3</v>
+        <v>25</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K58">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>98</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.15">
@@ -3657,34 +3780,40 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E59" t="s">
         <v>15</v>
       </c>
       <c r="F59">
+        <v>0.6653</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
         <v>1000</v>
       </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>100</v>
-      </c>
       <c r="I59">
-        <v>6000</v>
+        <v>3200</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K59">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>6000</v>
+        <v>50000</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.15">
@@ -3692,34 +3821,40 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D60" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F60">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="I60">
-        <v>100</v>
+        <v>0.4</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.15">
@@ -3727,34 +3862,34 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E61" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F61">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>48</v>
+        <v>500</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>48</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.15">
@@ -3762,34 +3897,34 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D62" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E62" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F62">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>48</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.15">
@@ -3797,34 +3932,34 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D63" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F63">
-        <v>0.70269999999999999</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.15">
@@ -3832,34 +3967,40 @@
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D64" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="F64">
-        <v>3.696E-2</v>
+        <v>0.91990000000000005</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L64">
         <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.15">
@@ -3867,31 +4008,31 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65">
-        <v>0.21909999999999999</v>
+        <v>0.64939999999999998</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -3902,34 +4043,34 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E66" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="F66">
-        <v>4.1719999999999997</v>
+        <v>5</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K66">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>150</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.15">
@@ -3937,40 +4078,40 @@
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="D67" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67">
-        <v>0.1273</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="I67">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K67">
         <v>0.01</v>
       </c>
       <c r="L67">
-        <v>0.3</v>
+        <v>30</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
       <c r="N67">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.15">
@@ -3978,34 +4119,34 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="D68" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>0.05</v>
+        <v>10000</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K68">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>0.05</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.15">
@@ -4013,40 +4154,34 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E69" t="s">
         <v>18</v>
       </c>
       <c r="F69">
-        <v>-0.34110000000000001</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="I69">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69">
-        <v>1</v>
-      </c>
-      <c r="N69">
-        <v>11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.15">
@@ -4054,40 +4189,34 @@
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F70">
-        <v>1.9119999999999999</v>
+        <v>33.64</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>-0.5</v>
+        <v>10</v>
       </c>
       <c r="I70">
-        <v>0.5</v>
+        <v>150</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L70">
-        <v>2000</v>
-      </c>
-      <c r="M70">
-        <v>1</v>
-      </c>
-      <c r="N70">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.15">
@@ -4095,34 +4224,34 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D71" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F71">
-        <v>0.25</v>
+        <v>2000</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>-0.5</v>
+        <v>500</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K71">
-        <v>-0.5</v>
+        <v>500</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.15">
@@ -4130,34 +4259,34 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D72" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F72">
-        <v>0.62039999999999995</v>
+        <v>2500</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K72">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.15">
@@ -4165,31 +4294,31 @@
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D73" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F73">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K73">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -4200,34 +4329,40 @@
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="D74" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E74" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="F74">
-        <v>145.6</v>
+        <v>9.604E-2</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>2.5000000000000001E-2</v>
+        <v>-0.5</v>
       </c>
       <c r="I74">
-        <v>150</v>
+        <v>0.3</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K74">
-        <v>2.5000000000000001E-2</v>
+        <v>35</v>
       </c>
       <c r="L74">
-        <v>150</v>
+        <v>98</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.15">
@@ -4235,34 +4370,34 @@
         <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F75">
-        <v>0.2732</v>
+        <v>1000</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="I75">
-        <v>0.3</v>
+        <v>6000</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K75">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="L75">
-        <v>0.3</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.15">
@@ -4270,34 +4405,34 @@
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>0.05</v>
+        <v>100</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K76">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>0.05</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.15">
@@ -4305,34 +4440,34 @@
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E77" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="F77">
-        <v>0.504</v>
+        <v>24</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K77">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.15">
@@ -4340,34 +4475,34 @@
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E78" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="F78">
-        <v>0.81010000000000004</v>
+        <v>24</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K78">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.15">
@@ -4375,34 +4510,34 @@
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="F79">
-        <v>0.20130000000000001</v>
+        <v>0.70269999999999999</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K79">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.15">
@@ -4410,594 +4545,612 @@
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E80" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="F80">
-        <v>0.2296</v>
+        <v>3.696E-2</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K80">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B81">
         <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E81" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.21909999999999999</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K81">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B82">
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E82" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F82">
-        <v>8.4599999999999995E-2</v>
+        <v>4.1719999999999997</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I82">
-        <v>0.1</v>
+        <v>150</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K82">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="L82">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B83">
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E83" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="F83">
-        <v>0.84699999999999998</v>
+        <v>0.1273</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.15">
+        <v>0.3</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B84">
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E84" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="F84">
-        <v>8.931E-2</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>1E-3</v>
+        <v>-0.25</v>
       </c>
       <c r="I84">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K84">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B85">
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E85" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="F85">
-        <v>6.2850000000000003E-2</v>
+        <v>-0.34110000000000001</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>1E-3</v>
+        <v>-0.3</v>
       </c>
       <c r="I85">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="K85">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B86">
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F86">
-        <v>55</v>
+        <v>1.9119999999999999</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>10</v>
+        <v>-0.5</v>
       </c>
       <c r="I86">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K86">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.15">
+        <v>2000</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B87">
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D87" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F87">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.5</v>
       </c>
       <c r="I87">
-        <v>0.09</v>
+        <v>1</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K87">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.5</v>
       </c>
       <c r="L87">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B88">
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D88" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F88">
-        <v>1.4999999999999999E-2</v>
+        <v>0.62039999999999995</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>0.01</v>
+        <v>-0.5</v>
       </c>
       <c r="I88">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K88">
-        <v>0.01</v>
+        <v>-0.5</v>
       </c>
       <c r="L88">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B89">
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D89" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E89" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="L89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B90">
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="F90">
-        <v>0.155</v>
+        <v>145.6</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I90">
-        <v>0.3</v>
+        <v>150</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K90">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="L90">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B91">
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D91" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
       </c>
       <c r="F91">
-        <v>0.5</v>
+        <v>0.2732</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B92">
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D92" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F92">
-        <v>0.27500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
+        <v>-0.05</v>
+      </c>
+      <c r="I92">
         <v>0.05</v>
       </c>
-      <c r="I92">
-        <v>0.5</v>
-      </c>
       <c r="J92" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K92">
+        <v>-0.05</v>
+      </c>
+      <c r="L92">
         <v>0.05</v>
       </c>
-      <c r="L92">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B93">
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D93" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="F93">
-        <v>-0.16550000000000001</v>
+        <v>0.504</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>-0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K93">
-        <v>-0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B94">
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D94" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="F94">
-        <v>0.5</v>
+        <v>0.81010000000000004</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B95">
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="D95" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E95" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="F95">
-        <v>0.5</v>
+        <v>0.20130000000000001</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B96">
         <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D96" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E96" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="F96">
-        <v>0.5</v>
+        <v>0.2296</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L96">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.15">
@@ -5005,34 +5158,34 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D97" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F97">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>1.82</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="L97">
-        <v>1</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.15">
@@ -5040,34 +5193,34 @@
         <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D98" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E98" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="F98">
-        <v>0.5</v>
+        <v>8.4599999999999995E-2</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.15">
@@ -5075,19 +5228,19 @@
         <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E99" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="F99">
-        <v>0.5</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -5096,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -5110,34 +5263,34 @@
         <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="D100" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E100" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="F100">
-        <v>0.5</v>
+        <v>8.931E-2</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.15">
@@ -5145,34 +5298,34 @@
         <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D101" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E101" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="F101">
-        <v>0.5</v>
+        <v>6.2850000000000003E-2</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.15">
@@ -5180,34 +5333,34 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="D102" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E102" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="F102">
+        <v>0.1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>-0.5</v>
+      </c>
+      <c r="I102">
         <v>0.5</v>
       </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
       <c r="J102" s="1" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="K102">
         <v>0</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.15">
@@ -5215,34 +5368,34 @@
         <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="D103" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E103" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="F103">
+        <v>0.1</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>-0.5</v>
+      </c>
+      <c r="I103">
         <v>0.5</v>
       </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>1</v>
-      </c>
       <c r="J103" s="1" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="K103">
         <v>0</v>
       </c>
       <c r="L103">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.15">
@@ -5250,34 +5403,34 @@
         <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="D104" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E104" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="F104">
+        <v>0.1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>-0.5</v>
+      </c>
+      <c r="I104">
         <v>0.5</v>
       </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
       <c r="J104" s="1" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="K104">
         <v>0</v>
       </c>
       <c r="L104">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.15">
@@ -5285,34 +5438,34 @@
         <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="D105" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E105" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="F105">
+        <v>0.1</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>-0.5</v>
+      </c>
+      <c r="I105">
         <v>0.5</v>
       </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
       <c r="J105" s="1" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="K105">
         <v>0</v>
       </c>
       <c r="L105">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.15">
@@ -5320,34 +5473,34 @@
         <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
       <c r="D106" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="F106">
+        <v>0.1</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>-0.5</v>
+      </c>
+      <c r="I106">
         <v>0.5</v>
       </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
       <c r="J106" s="1" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="K106">
         <v>0</v>
       </c>
       <c r="L106">
-        <v>1</v>
+        <v>999999</v>
       </c>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.15">
@@ -5355,34 +5508,34 @@
         <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="D107" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E107" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="F107">
+        <v>0.1</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>-0.5</v>
+      </c>
+      <c r="I107">
         <v>0.5</v>
       </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
       <c r="J107" s="1" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="K107">
         <v>0</v>
       </c>
       <c r="L107">
-        <v>1</v>
+        <v>999999</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.15">
@@ -5390,34 +5543,34 @@
         <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="D108" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E108" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="F108">
+        <v>0.1</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>-0.5</v>
+      </c>
+      <c r="I108">
         <v>0.5</v>
       </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
       <c r="J108" s="1" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="K108">
         <v>0</v>
       </c>
       <c r="L108">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.15">
@@ -5425,34 +5578,34 @@
         <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="D109" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E109" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="F109">
-        <v>0.5</v>
+        <v>55</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L109">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.15">
@@ -5460,34 +5613,34 @@
         <v>108</v>
       </c>
       <c r="C110" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="D110" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E110" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="F110">
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0.09</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L110">
-        <v>1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.15">
@@ -5495,34 +5648,34 @@
         <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="D111" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E111" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="F111">
-        <v>0.5</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L111">
-        <v>1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.15">
@@ -5530,34 +5683,34 @@
         <v>110</v>
       </c>
       <c r="C112" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="D112" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E112" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F112">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.15">
@@ -5565,34 +5718,34 @@
         <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="D113" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E113" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="F113">
-        <v>0.5</v>
+        <v>0.155</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L113">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.15">
@@ -5600,19 +5753,19 @@
         <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="D114" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E114" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="F114">
         <v>0.5</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -5621,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -5635,34 +5788,34 @@
         <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="D115" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E115" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="F115">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>0.05</v>
+      </c>
+      <c r="I115">
         <v>0.5</v>
       </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
       <c r="J115" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L115">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.15">
@@ -5670,31 +5823,31 @@
         <v>114</v>
       </c>
       <c r="C116" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="D116" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E116" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="F116">
-        <v>0.5</v>
+        <v>-0.16550000000000001</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L116">
         <v>1</v>
@@ -5705,19 +5858,19 @@
         <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="D117" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E117" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="F117">
         <v>0.5</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -5726,7 +5879,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -5740,19 +5893,19 @@
         <v>116</v>
       </c>
       <c r="C118" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="D118" t="s">
+        <v>131</v>
+      </c>
+      <c r="E118" t="s">
         <v>132</v>
-      </c>
-      <c r="E118" t="s">
-        <v>133</v>
       </c>
       <c r="F118">
         <v>0.5</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -5761,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -5775,19 +5928,19 @@
         <v>117</v>
       </c>
       <c r="C119" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D119" t="s">
+        <v>131</v>
+      </c>
+      <c r="E119" t="s">
         <v>132</v>
-      </c>
-      <c r="E119" t="s">
-        <v>133</v>
       </c>
       <c r="F119">
         <v>0.5</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -5796,7 +5949,7 @@
         <v>1</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -5810,34 +5963,34 @@
         <v>118</v>
       </c>
       <c r="C120" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="D120" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E120" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="F120">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K120">
         <v>0</v>
       </c>
       <c r="L120">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.15">
@@ -5845,34 +5998,34 @@
         <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="D121" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E121" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F121">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K121">
         <v>0</v>
       </c>
       <c r="L121">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.15">
@@ -5880,34 +6033,34 @@
         <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D122" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E122" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="F122">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K122">
         <v>0</v>
       </c>
       <c r="L122">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.15">
@@ -5915,34 +6068,34 @@
         <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="D123" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E123" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F123">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K123">
         <v>0</v>
       </c>
       <c r="L123">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.15">
@@ -5950,19 +6103,19 @@
         <v>122</v>
       </c>
       <c r="C124" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="D124" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E124" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F124">
         <v>0.5</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -5971,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -5985,34 +6138,34 @@
         <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="D125" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E125" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F125">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K125">
         <v>0</v>
       </c>
       <c r="L125">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.15">
@@ -6020,34 +6173,34 @@
         <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="D126" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E126" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="F126">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K126">
         <v>0</v>
       </c>
       <c r="L126">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.15">
@@ -6055,34 +6208,34 @@
         <v>125</v>
       </c>
       <c r="C127" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="D127" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E127" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="F127">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K127">
         <v>0</v>
       </c>
       <c r="L127">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.15">
@@ -6090,34 +6243,34 @@
         <v>126</v>
       </c>
       <c r="C128" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="D128" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E128" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F128">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K128">
         <v>0</v>
       </c>
       <c r="L128">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.15">
@@ -6125,19 +6278,19 @@
         <v>127</v>
       </c>
       <c r="C129" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="D129" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E129" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="F129">
         <v>0.5</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -6146,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -6160,19 +6313,19 @@
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="D130" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F130">
         <v>0.5</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -6181,7 +6334,7 @@
         <v>1</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -6195,34 +6348,34 @@
         <v>129</v>
       </c>
       <c r="C131" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="D131" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F131">
-        <v>1.5860000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K131">
         <v>0</v>
       </c>
       <c r="L131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.15">
@@ -6230,34 +6383,34 @@
         <v>130</v>
       </c>
       <c r="C132" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="D132" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F132">
-        <v>3.5869999999999999E-2</v>
+        <v>0.5</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K132">
         <v>0</v>
       </c>
       <c r="L132">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.15">
@@ -6265,34 +6418,34 @@
         <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="D133" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="E133" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="F133">
-        <v>1.252</v>
+        <v>0.5</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K133">
         <v>0</v>
       </c>
       <c r="L133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.15">
@@ -6300,34 +6453,34 @@
         <v>132</v>
       </c>
       <c r="C134" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D134" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="E134" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="F134">
-        <v>2.0710000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K134">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.15">
@@ -6335,19 +6488,19 @@
         <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="D135" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F135">
-        <v>0.90790000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -6356,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -6370,19 +6523,19 @@
         <v>134</v>
       </c>
       <c r="C136" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="D136" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F136">
-        <v>0.65649999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -6391,7 +6544,7 @@
         <v>1</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -6405,34 +6558,34 @@
         <v>135</v>
       </c>
       <c r="C137" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="D137" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F137">
-        <v>0.40649999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K137">
         <v>0</v>
       </c>
       <c r="L137">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.15">
@@ -6440,19 +6593,19 @@
         <v>136</v>
       </c>
       <c r="C138" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F138">
         <v>0.5</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -6461,7 +6614,7 @@
         <v>1</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K138">
         <v>0</v>
@@ -6475,19 +6628,19 @@
         <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F139">
         <v>0.5</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -6496,7 +6649,7 @@
         <v>1</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K139">
         <v>0</v>
@@ -6510,34 +6663,34 @@
         <v>138</v>
       </c>
       <c r="C140" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F140">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="I140">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K140">
         <v>0</v>
       </c>
       <c r="L140">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.15">
@@ -6545,34 +6698,34 @@
         <v>139</v>
       </c>
       <c r="C141" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="D141" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K141">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L141">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.15">
@@ -6580,33 +6733,838 @@
         <v>140</v>
       </c>
       <c r="C142" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="D142" t="s">
+        <v>131</v>
+      </c>
+      <c r="E142" t="s">
+        <v>132</v>
+      </c>
+      <c r="F142">
+        <v>0.5</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B143">
+        <v>141</v>
+      </c>
+      <c r="C143" t="s">
+        <v>157</v>
+      </c>
+      <c r="D143" t="s">
+        <v>105</v>
+      </c>
+      <c r="E143" t="s">
+        <v>106</v>
+      </c>
+      <c r="F143">
+        <v>0.05</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0.1</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B144">
+        <v>142</v>
+      </c>
+      <c r="C144" t="s">
+        <v>158</v>
+      </c>
+      <c r="D144" t="s">
+        <v>105</v>
+      </c>
+      <c r="E144" t="s">
+        <v>111</v>
+      </c>
+      <c r="F144">
+        <v>5</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>10</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B145">
+        <v>143</v>
+      </c>
+      <c r="C145" t="s">
+        <v>159</v>
+      </c>
+      <c r="D145" t="s">
+        <v>105</v>
+      </c>
+      <c r="E145" t="s">
+        <v>160</v>
+      </c>
+      <c r="F145">
+        <v>0.05</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0.1</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B146">
+        <v>144</v>
+      </c>
+      <c r="C146" t="s">
+        <v>161</v>
+      </c>
+      <c r="D146" t="s">
+        <v>105</v>
+      </c>
+      <c r="E146" t="s">
+        <v>111</v>
+      </c>
+      <c r="F146">
+        <v>5</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>10</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B147">
+        <v>145</v>
+      </c>
+      <c r="C147" t="s">
+        <v>162</v>
+      </c>
+      <c r="D147" t="s">
+        <v>105</v>
+      </c>
+      <c r="E147" t="s">
+        <v>111</v>
+      </c>
+      <c r="F147">
+        <v>0.5</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B148">
+        <v>146</v>
+      </c>
+      <c r="C148" t="s">
+        <v>163</v>
+      </c>
+      <c r="D148" t="s">
+        <v>105</v>
+      </c>
+      <c r="E148" t="s">
+        <v>111</v>
+      </c>
+      <c r="F148">
+        <v>0.05</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0.1</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B149">
+        <v>147</v>
+      </c>
+      <c r="C149" t="s">
+        <v>164</v>
+      </c>
+      <c r="D149" t="s">
+        <v>105</v>
+      </c>
+      <c r="E149" t="s">
+        <v>165</v>
+      </c>
+      <c r="F149">
+        <v>500</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>1000</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B150">
+        <v>148</v>
+      </c>
+      <c r="C150" t="s">
+        <v>166</v>
+      </c>
+      <c r="D150" t="s">
+        <v>105</v>
+      </c>
+      <c r="E150" t="s">
+        <v>106</v>
+      </c>
+      <c r="F150">
+        <v>0.05</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0.1</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B151">
+        <v>149</v>
+      </c>
+      <c r="C151" t="s">
+        <v>167</v>
+      </c>
+      <c r="D151" t="s">
+        <v>105</v>
+      </c>
+      <c r="E151" t="s">
+        <v>111</v>
+      </c>
+      <c r="F151">
+        <v>0.05</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0.1</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B152">
+        <v>150</v>
+      </c>
+      <c r="C152" t="s">
+        <v>168</v>
+      </c>
+      <c r="D152" t="s">
+        <v>105</v>
+      </c>
+      <c r="E152" t="s">
+        <v>65</v>
+      </c>
+      <c r="F152">
+        <v>0.5</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B153">
+        <v>151</v>
+      </c>
+      <c r="C153" t="s">
+        <v>169</v>
+      </c>
+      <c r="D153" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153">
+        <v>0.5</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B154">
+        <v>152</v>
+      </c>
+      <c r="C154" t="s">
+        <v>170</v>
+      </c>
+      <c r="D154" t="s">
+        <v>171</v>
+      </c>
+      <c r="E154" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154">
+        <v>1.5860000000000001</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B155">
+        <v>153</v>
+      </c>
+      <c r="C155" t="s">
+        <v>172</v>
+      </c>
+      <c r="D155" t="s">
+        <v>171</v>
+      </c>
+      <c r="E155" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155">
+        <v>3.5869999999999999E-2</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0.5</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B156">
+        <v>154</v>
+      </c>
+      <c r="C156" t="s">
+        <v>173</v>
+      </c>
+      <c r="D156" t="s">
+        <v>171</v>
+      </c>
+      <c r="E156" t="s">
+        <v>174</v>
+      </c>
+      <c r="F156">
+        <v>1.252</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B157">
+        <v>155</v>
+      </c>
+      <c r="C157" t="s">
+        <v>175</v>
+      </c>
+      <c r="D157" t="s">
+        <v>171</v>
+      </c>
+      <c r="E157" t="s">
+        <v>176</v>
+      </c>
+      <c r="F157">
+        <v>2.0710000000000002</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>0.5</v>
+      </c>
+      <c r="I157">
+        <v>3</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K157">
+        <v>0.5</v>
+      </c>
+      <c r="L157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B158">
+        <v>156</v>
+      </c>
+      <c r="C158" t="s">
+        <v>177</v>
+      </c>
+      <c r="D158" t="s">
+        <v>171</v>
+      </c>
+      <c r="E158" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B159">
+        <v>157</v>
+      </c>
+      <c r="C159" t="s">
+        <v>178</v>
+      </c>
+      <c r="D159" t="s">
+        <v>171</v>
+      </c>
+      <c r="E159" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B160">
+        <v>158</v>
+      </c>
+      <c r="C160" t="s">
+        <v>179</v>
+      </c>
+      <c r="D160" t="s">
+        <v>73</v>
+      </c>
+      <c r="E160" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160">
+        <v>0.40649999999999997</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0.99</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B161">
+        <v>159</v>
+      </c>
+      <c r="C161" t="s">
+        <v>180</v>
+      </c>
+      <c r="D161" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161">
+        <v>0.5</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B162">
+        <v>160</v>
+      </c>
+      <c r="C162" t="s">
+        <v>181</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162">
+        <v>0.5</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B163">
+        <v>161</v>
+      </c>
+      <c r="C163" t="s">
+        <v>182</v>
+      </c>
+      <c r="D163" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163">
+        <v>0.2</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0.5</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B164">
+        <v>162</v>
+      </c>
+      <c r="C164" t="s">
+        <v>183</v>
+      </c>
+      <c r="D164" t="s">
+        <v>184</v>
+      </c>
+      <c r="E164" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>0.9</v>
+      </c>
+      <c r="I164">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K164">
+        <v>0.9</v>
+      </c>
+      <c r="L164">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B165">
+        <v>163</v>
+      </c>
+      <c r="C165" t="s">
         <v>185</v>
       </c>
-      <c r="E142" t="s">
+      <c r="D165" t="s">
+        <v>184</v>
+      </c>
+      <c r="E165" t="s">
         <v>11</v>
       </c>
-      <c r="F142">
+      <c r="F165">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142">
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
         <v>1E-3</v>
       </c>
-      <c r="I142">
+      <c r="I165">
         <v>0.1</v>
       </c>
-      <c r="J142" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K142">
+      <c r="J165" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K165">
         <v>1E-3</v>
       </c>
-      <c r="L142">
+      <c r="L165">
         <v>0.1</v>
       </c>
     </row>

--- a/IPEAT_Para.xlsx
+++ b/IPEAT_Para.xlsx
@@ -1721,7 +1721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
